--- a/rhla_analysis/rhla1_3_uniform_result/k1.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003986028860371132</v>
+        <v>0.003986028860371153</v>
       </c>
       <c r="B2" t="n">
         <v>0.06938748907840887</v>
@@ -466,26 +466,26 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="D2" t="n">
-        <v>17.40767352897398</v>
+        <v>17.40767352897389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006258196757770032</v>
+        <v>0.006258196757770013</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05998485357194926</v>
+        <v>0.05998485357194925</v>
       </c>
       <c r="C3" t="n">
         <v>0.07502131287297528</v>
       </c>
       <c r="D3" t="n">
-        <v>9.585006015906012</v>
+        <v>9.585006015906039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008059223393107204</v>
+        <v>0.008059223393107218</v>
       </c>
       <c r="B4" t="n">
         <v>0.0530437606779705</v>
@@ -494,54 +494,54 @@
         <v>0.05754475703324808</v>
       </c>
       <c r="D4" t="n">
-        <v>6.581745919009657</v>
+        <v>6.581745919009646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006957859451269191</v>
+        <v>0.006957859451269202</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05787749956564564</v>
+        <v>0.05787749956564563</v>
       </c>
       <c r="C5" t="n">
         <v>0.04518329070758739</v>
       </c>
       <c r="D5" t="n">
-        <v>8.318290987480085</v>
+        <v>8.31829098748007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01225175857015317</v>
+        <v>0.01225175857015311</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05079216523412902</v>
+        <v>0.05079216523412899</v>
       </c>
       <c r="C6" t="n">
         <v>0.05072463768115942</v>
       </c>
       <c r="D6" t="n">
-        <v>4.145704058996489</v>
+        <v>4.145704058996508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.00765445846156675</v>
+        <v>0.007654458461566785</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05231455522468118</v>
+        <v>0.0523145552246812</v>
       </c>
       <c r="C7" t="n">
         <v>0.0711849957374254</v>
       </c>
       <c r="D7" t="n">
-        <v>6.834520755106847</v>
+        <v>6.834520755106818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.006890012579864656</v>
+        <v>0.006890012579864652</v>
       </c>
       <c r="B8" t="n">
         <v>0.04846426040824776</v>
@@ -550,40 +550,40 @@
         <v>0.06223358908780904</v>
       </c>
       <c r="D8" t="n">
-        <v>7.033987216493554</v>
+        <v>7.033987216493558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.007374352662358676</v>
+        <v>0.007374352662358703</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05899697866124277</v>
+        <v>0.05899697866124278</v>
       </c>
       <c r="C9" t="n">
         <v>0.05754475703324808</v>
       </c>
       <c r="D9" t="n">
-        <v>8.000292549390046</v>
+        <v>8.000292549390018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0109049250905963</v>
+        <v>0.01090492509059629</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05709177185672025</v>
+        <v>0.05709177185672023</v>
       </c>
       <c r="C10" t="n">
         <v>0.05924978687127025</v>
       </c>
       <c r="D10" t="n">
-        <v>5.235411649544708</v>
+        <v>5.235411649544711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005666559482071784</v>
+        <v>0.005666559482071782</v>
       </c>
       <c r="B11" t="n">
         <v>0.07370691419573715</v>
@@ -592,7 +592,7 @@
         <v>0.06351236146632566</v>
       </c>
       <c r="D11" t="n">
-        <v>13.00734853819777</v>
+        <v>13.00734853819778</v>
       </c>
     </row>
   </sheetData>
